--- a/(amazon-web-services)_Data.xlsx
+++ b/(amazon-web-services)_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="1674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1674">
   <si>
     <t>Website</t>
   </si>
@@ -5048,7 +5048,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5059,13 +5059,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5548,13 +5541,16 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5563,128 +5559,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6043,10 +6035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C601"/>
+  <dimension ref="A1:C603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443"/>
+    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
+      <selection activeCell="A594" sqref="A594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -11061,1609 +11053,1631 @@
       </c>
     </row>
     <row r="456" spans="1:3">
-      <c r="A456" s="3" t="s">
+      <c r="A456" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="B456" s="3" t="s">
+      <c r="B456" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="C456" s="3" t="s">
+      <c r="C456" s="2" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="457" spans="1:3">
-      <c r="A457" s="3" t="s">
+      <c r="A457" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="B457" s="3" t="s">
+      <c r="B457" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="C457" s="3" t="s">
+      <c r="C457" s="2" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" s="3" t="s">
+      <c r="A458" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="B458" s="3" t="s">
+      <c r="B458" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="C458" s="3" t="s">
+      <c r="C458" s="2" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="459" spans="1:3">
-      <c r="A459" s="3" t="s">
+      <c r="A459" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="B459" s="3" t="s">
+      <c r="B459" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="C459" s="3" t="s">
+      <c r="C459" s="2" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="460" spans="1:3">
-      <c r="A460" s="3" t="s">
+      <c r="A460" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="B460" s="3" t="s">
+      <c r="B460" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="C460" s="3" t="s">
+      <c r="C460" s="2" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="461" spans="1:3">
-      <c r="A461" s="3" t="s">
+      <c r="A461" s="2" t="s">
         <v>1265</v>
       </c>
-      <c r="B461" s="3" t="s">
+      <c r="B461" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="C461" s="3" t="s">
+      <c r="C461" s="2" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="462" spans="1:3">
-      <c r="A462" s="3" t="s">
+      <c r="A462" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="B462" s="3" t="s">
+      <c r="B462" s="2" t="s">
         <v>1269</v>
       </c>
-      <c r="C462" s="3" t="s">
+      <c r="C462" s="2" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="463" spans="1:3">
-      <c r="A463" s="3" t="s">
+      <c r="A463" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="B463" s="3" t="s">
+      <c r="B463" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="C463" s="3" t="s">
+      <c r="C463" s="2" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="464" spans="1:3">
-      <c r="A464" s="3" t="s">
+      <c r="A464" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="B464" s="3" t="s">
+      <c r="B464" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="C464" s="3" t="s">
+      <c r="C464" s="2" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="465" spans="1:3">
-      <c r="A465" s="3" t="s">
+      <c r="A465" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="B465" s="3" t="s">
+      <c r="B465" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="C465" s="3" t="s">
+      <c r="C465" s="2" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="466" spans="1:3">
-      <c r="A466" s="3" t="s">
+      <c r="A466" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="B466" s="3" t="s">
+      <c r="B466" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="C466" s="3" t="s">
+      <c r="C466" s="2" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="467" spans="1:3">
-      <c r="A467" s="3" t="s">
+      <c r="A467" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="B467" s="3" t="s">
+      <c r="B467" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="C467" s="3" t="s">
+      <c r="C467" s="2" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="468" spans="1:3">
-      <c r="A468" s="3" t="s">
+      <c r="A468" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="B468" s="3" t="s">
+      <c r="B468" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="C468" s="3" t="s">
+      <c r="C468" s="2" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="469" spans="1:3">
-      <c r="A469" s="3" t="s">
+      <c r="A469" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="B469" s="3" t="s">
+      <c r="B469" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="C469" s="3" t="s">
+      <c r="C469" s="2" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="470" spans="1:3">
-      <c r="A470" s="3" t="s">
+      <c r="A470" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="B470" s="3" t="s">
+      <c r="B470" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="C470" s="3" t="s">
+      <c r="C470" s="2" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="471" spans="1:3">
-      <c r="A471" s="3" t="s">
+      <c r="A471" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="B471" s="3" t="s">
+      <c r="B471" s="2" t="s">
         <v>1294</v>
       </c>
-      <c r="C471" s="3" t="s">
+      <c r="C471" s="2" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="472" spans="1:3">
-      <c r="A472" s="3" t="s">
+      <c r="A472" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="B472" s="3" t="s">
+      <c r="B472" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="C472" s="3" t="s">
+      <c r="C472" s="2" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="473" spans="1:3">
-      <c r="A473" s="3" t="s">
+      <c r="A473" s="2" t="s">
         <v>1299</v>
       </c>
-      <c r="B473" s="3" t="s">
+      <c r="B473" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C473" s="3" t="s">
+      <c r="C473" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="474" spans="1:3">
-      <c r="A474" s="3" t="s">
+      <c r="A474" s="2" t="s">
         <v>1300</v>
       </c>
-      <c r="B474" s="3" t="s">
+      <c r="B474" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="C474" s="3" t="s">
+      <c r="C474" s="2" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="475" spans="1:3">
-      <c r="A475" s="3" t="s">
+      <c r="A475" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="B475" s="3" t="s">
+      <c r="B475" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="C475" s="3" t="s">
+      <c r="C475" s="2" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="476" spans="1:3">
-      <c r="A476" s="3" t="s">
+      <c r="A476" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="B476" s="3" t="s">
+      <c r="B476" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="C476" s="3" t="s">
+      <c r="C476" s="2" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="477" spans="1:3">
-      <c r="A477" s="3" t="s">
+      <c r="A477" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="B477" s="3" t="s">
+      <c r="B477" s="2" t="s">
         <v>1308</v>
       </c>
-      <c r="C477" s="3" t="s">
+      <c r="C477" s="2" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="478" spans="1:3">
-      <c r="A478" s="3" t="s">
+      <c r="A478" s="2" t="s">
         <v>1310</v>
       </c>
-      <c r="B478" s="3" t="s">
+      <c r="B478" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="C478" s="3" t="s">
+      <c r="C478" s="2" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="479" spans="1:3">
-      <c r="A479" s="3" t="s">
+      <c r="A479" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="B479" s="3" t="s">
+      <c r="B479" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="C479" s="3" t="s">
+      <c r="C479" s="2" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="480" spans="1:3">
-      <c r="A480" s="3" t="s">
+      <c r="A480" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="B480" s="3" t="s">
+      <c r="B480" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="C480" s="3" t="s">
+      <c r="C480" s="2" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="481" spans="1:3">
-      <c r="A481" s="3" t="s">
+      <c r="A481" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="B481" s="3" t="s">
+      <c r="B481" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="C481" s="3" t="s">
+      <c r="C481" s="2" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="482" spans="1:3">
-      <c r="A482" s="3" t="s">
+      <c r="A482" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="B482" s="3" t="s">
+      <c r="B482" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="C482" s="3" t="s">
+      <c r="C482" s="2" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="483" spans="1:3">
-      <c r="A483" s="3" t="s">
+      <c r="A483" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="B483" s="3" t="s">
+      <c r="B483" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="C483" s="3" t="s">
+      <c r="C483" s="2" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="484" spans="1:3">
-      <c r="A484" s="3" t="s">
+      <c r="A484" s="2" t="s">
         <v>1328</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="B484" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="C484" s="3" t="s">
+      <c r="C484" s="2" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="485" spans="1:3">
-      <c r="A485" s="3" t="s">
+      <c r="A485" s="2" t="s">
         <v>1331</v>
       </c>
-      <c r="B485" s="3" t="s">
+      <c r="B485" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="C485" s="3" t="s">
+      <c r="C485" s="2" t="s">
         <v>1333</v>
       </c>
     </row>
     <row r="486" spans="1:3">
-      <c r="A486" s="3" t="s">
+      <c r="A486" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="B486" s="3" t="s">
+      <c r="B486" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="C486" s="3" t="s">
+      <c r="C486" s="2" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="487" spans="1:3">
-      <c r="A487" s="3" t="s">
+      <c r="A487" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="B487" s="3" t="s">
+      <c r="B487" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="C487" s="3" t="s">
+      <c r="C487" s="2" t="s">
         <v>1339</v>
       </c>
     </row>
     <row r="488" spans="1:3">
-      <c r="A488" s="3" t="s">
+      <c r="A488" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="B488" s="3" t="s">
+      <c r="B488" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="C488" s="3" t="s">
+      <c r="C488" s="2" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="489" spans="1:3">
-      <c r="A489" s="3" t="s">
+      <c r="A489" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="B489" s="3" t="s">
+      <c r="B489" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="C489" s="3" t="s">
+      <c r="C489" s="2" t="s">
         <v>1345</v>
       </c>
     </row>
     <row r="490" spans="1:3">
-      <c r="A490" s="3" t="s">
+      <c r="A490" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="B490" s="3" t="s">
+      <c r="B490" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="C490" s="3" t="s">
+      <c r="C490" s="2" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="491" spans="1:3">
-      <c r="A491" s="3" t="s">
+      <c r="A491" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="B491" s="3" t="s">
+      <c r="B491" s="2" t="s">
         <v>1350</v>
       </c>
-      <c r="C491" s="3" t="s">
+      <c r="C491" s="2" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="492" spans="1:3">
-      <c r="A492" s="3" t="s">
+      <c r="A492" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="B492" s="3" t="s">
+      <c r="B492" s="2" t="s">
         <v>1353</v>
       </c>
-      <c r="C492" s="3" t="s">
+      <c r="C492" s="2" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="493" spans="1:3">
-      <c r="A493" s="3" t="s">
+      <c r="A493" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="B493" s="3" t="s">
+      <c r="B493" s="2" t="s">
         <v>1356</v>
       </c>
-      <c r="C493" s="3" t="s">
+      <c r="C493" s="2" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="494" spans="1:3">
-      <c r="A494" s="3" t="s">
+      <c r="A494" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="B494" s="3" t="s">
+      <c r="B494" s="2" t="s">
         <v>1359</v>
       </c>
-      <c r="C494" s="3" t="s">
+      <c r="C494" s="2" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="495" spans="1:3">
-      <c r="A495" s="3" t="s">
+      <c r="A495" s="2" t="s">
         <v>1361</v>
       </c>
-      <c r="B495" s="3" t="s">
+      <c r="B495" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="C495" s="3" t="s">
+      <c r="C495" s="2" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="496" spans="1:3">
-      <c r="A496" s="3" t="s">
+      <c r="A496" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="B496" s="3" t="s">
+      <c r="B496" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="C496" s="3" t="s">
+      <c r="C496" s="2" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="497" spans="1:3">
-      <c r="A497" s="3" t="s">
+      <c r="A497" s="2" t="s">
         <v>1367</v>
       </c>
-      <c r="B497" s="3" t="s">
+      <c r="B497" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="C497" s="3" t="s">
+      <c r="C497" s="2" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="498" spans="1:3">
-      <c r="A498" s="3" t="s">
+      <c r="A498" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="B498" s="3" t="s">
+      <c r="B498" s="2" t="s">
         <v>1371</v>
       </c>
-      <c r="C498" s="3" t="s">
+      <c r="C498" s="2" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="499" spans="1:3">
-      <c r="A499" s="3" t="s">
+      <c r="A499" s="2" t="s">
         <v>1373</v>
       </c>
-      <c r="B499" s="3" t="s">
+      <c r="B499" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="C499" s="3" t="s">
+      <c r="C499" s="2" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="500" spans="1:3">
-      <c r="A500" s="3" t="s">
+      <c r="A500" s="2" t="s">
         <v>1376</v>
       </c>
-      <c r="B500" s="3" t="s">
+      <c r="B500" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C500" s="3" t="s">
+      <c r="C500" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="501" spans="1:3">
-      <c r="A501" s="3" t="s">
+      <c r="A501" s="2" t="s">
         <v>1377</v>
       </c>
-      <c r="B501" s="3" t="s">
+      <c r="B501" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="C501" s="3" t="s">
+      <c r="C501" s="2" t="s">
         <v>1379</v>
       </c>
     </row>
     <row r="502" spans="1:3">
-      <c r="A502" s="3" t="s">
+      <c r="A502" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="B502" s="3" t="s">
+      <c r="B502" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="C502" s="3" t="s">
+      <c r="C502" s="2" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="503" spans="1:3">
-      <c r="A503" s="3" t="s">
+      <c r="A503" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B503" s="3" t="s">
+      <c r="B503" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="C503" s="3" t="s">
+      <c r="C503" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="504" spans="1:3">
-      <c r="A504" s="3" t="s">
+      <c r="A504" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="B504" s="3" t="s">
+      <c r="B504" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="C504" s="3" t="s">
+      <c r="C504" s="2" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="505" spans="1:3">
-      <c r="A505" s="3" t="s">
+      <c r="A505" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="B505" s="3" t="s">
+      <c r="B505" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="C505" s="3" t="s">
+      <c r="C505" s="2" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="506" spans="1:3">
-      <c r="A506" s="3" t="s">
+      <c r="A506" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="B506" s="3" t="s">
+      <c r="B506" s="2" t="s">
         <v>1391</v>
       </c>
-      <c r="C506" s="3" t="s">
+      <c r="C506" s="2" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="507" spans="1:3">
-      <c r="A507" s="3" t="s">
+      <c r="A507" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="B507" s="3" t="s">
+      <c r="B507" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="C507" s="3" t="s">
+      <c r="C507" s="2" t="s">
         <v>1395</v>
       </c>
     </row>
     <row r="508" spans="1:3">
-      <c r="A508" s="3" t="s">
+      <c r="A508" s="2" t="s">
         <v>1396</v>
       </c>
-      <c r="B508" s="3" t="s">
+      <c r="B508" s="2" t="s">
         <v>1397</v>
       </c>
-      <c r="C508" s="3" t="s">
+      <c r="C508" s="2" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="509" spans="1:3">
-      <c r="A509" s="3" t="s">
+      <c r="A509" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="B509" s="3" t="s">
+      <c r="B509" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="C509" s="3" t="s">
+      <c r="C509" s="2" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="510" spans="1:3">
-      <c r="A510" s="3" t="s">
+      <c r="A510" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="B510" s="3" t="s">
+      <c r="B510" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="C510" s="3" t="s">
+      <c r="C510" s="2" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="511" spans="1:3">
-      <c r="A511" s="3" t="s">
+      <c r="A511" s="2" t="s">
         <v>1405</v>
       </c>
-      <c r="B511" s="3" t="s">
+      <c r="B511" s="2" t="s">
         <v>1406</v>
       </c>
-      <c r="C511" s="3" t="s">
+      <c r="C511" s="2" t="s">
         <v>1407</v>
       </c>
     </row>
     <row r="512" spans="1:3">
-      <c r="A512" s="3" t="s">
+      <c r="A512" s="2" t="s">
         <v>1408</v>
       </c>
-      <c r="B512" s="3" t="s">
+      <c r="B512" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="C512" s="3" t="s">
+      <c r="C512" s="2" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="513" spans="1:3">
-      <c r="A513" s="3" t="s">
+      <c r="A513" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="B513" s="3" t="s">
+      <c r="B513" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="C513" s="3" t="s">
+      <c r="C513" s="2" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="514" spans="1:3">
-      <c r="A514" s="3" t="s">
+      <c r="A514" s="2" t="s">
         <v>1414</v>
       </c>
-      <c r="B514" s="3" t="s">
+      <c r="B514" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="C514" s="3" t="s">
+      <c r="C514" s="2" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="515" spans="1:3">
-      <c r="A515" s="3" t="s">
+      <c r="A515" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="B515" s="3" t="s">
+      <c r="B515" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="C515" s="3" t="s">
+      <c r="C515" s="2" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="516" spans="1:3">
-      <c r="A516" s="3" t="s">
+      <c r="A516" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="B516" s="3" t="s">
+      <c r="B516" s="2" t="s">
         <v>1421</v>
       </c>
-      <c r="C516" s="3" t="s">
+      <c r="C516" s="2" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="517" spans="1:3">
-      <c r="A517" s="3" t="s">
+      <c r="A517" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="B517" s="3" t="s">
+      <c r="B517" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="C517" s="3" t="s">
+      <c r="C517" s="2" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="518" spans="1:3">
-      <c r="A518" s="3" t="s">
+      <c r="A518" s="2" t="s">
         <v>1426</v>
       </c>
-      <c r="B518" s="3" t="s">
+      <c r="B518" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="C518" s="3" t="s">
+      <c r="C518" s="2" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="519" spans="1:3">
-      <c r="A519" s="3" t="s">
+      <c r="A519" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="B519" s="3" t="s">
+      <c r="B519" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="C519" s="3" t="s">
+      <c r="C519" s="2" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="520" spans="1:3">
-      <c r="A520" s="3" t="s">
+      <c r="A520" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="B520" s="3" t="s">
+      <c r="B520" s="2" t="s">
         <v>1433</v>
       </c>
-      <c r="C520" s="3" t="s">
+      <c r="C520" s="2" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="521" spans="1:3">
-      <c r="A521" s="3" t="s">
+      <c r="A521" s="2" t="s">
         <v>1435</v>
       </c>
-      <c r="B521" s="3" t="s">
+      <c r="B521" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="C521" s="3" t="s">
+      <c r="C521" s="2" t="s">
         <v>1437</v>
       </c>
     </row>
     <row r="522" spans="1:3">
-      <c r="A522" s="3" t="s">
+      <c r="A522" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="B522" s="3" t="s">
+      <c r="B522" s="2" t="s">
         <v>1439</v>
       </c>
-      <c r="C522" s="3" t="s">
+      <c r="C522" s="2" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="523" spans="1:3">
-      <c r="A523" s="3" t="s">
+      <c r="A523" s="2" t="s">
         <v>1441</v>
       </c>
-      <c r="B523" s="3" t="s">
+      <c r="B523" s="2" t="s">
         <v>1442</v>
       </c>
-      <c r="C523" s="3" t="s">
+      <c r="C523" s="2" t="s">
         <v>1443</v>
       </c>
     </row>
     <row r="524" spans="1:3">
-      <c r="A524" s="3" t="s">
+      <c r="A524" s="2" t="s">
         <v>1444</v>
       </c>
-      <c r="B524" s="3" t="s">
+      <c r="B524" s="2" t="s">
         <v>1445</v>
       </c>
-      <c r="C524" s="3" t="s">
+      <c r="C524" s="2" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="525" spans="1:3">
-      <c r="A525" s="3" t="s">
+      <c r="A525" s="2" t="s">
         <v>1447</v>
       </c>
-      <c r="B525" s="3" t="s">
+      <c r="B525" s="2" t="s">
         <v>1448</v>
       </c>
-      <c r="C525" s="3" t="s">
+      <c r="C525" s="2" t="s">
         <v>1449</v>
       </c>
     </row>
     <row r="526" spans="1:3">
-      <c r="A526" s="3" t="s">
+      <c r="A526" s="2" t="s">
         <v>1450</v>
       </c>
-      <c r="B526" s="3" t="s">
+      <c r="B526" s="2" t="s">
         <v>1451</v>
       </c>
-      <c r="C526" s="3" t="s">
+      <c r="C526" s="2" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="527" spans="1:3">
-      <c r="A527" s="3" t="s">
+      <c r="A527" s="2" t="s">
         <v>1453</v>
       </c>
-      <c r="B527" s="3" t="s">
+      <c r="B527" s="2" t="s">
         <v>1454</v>
       </c>
-      <c r="C527" s="3" t="s">
+      <c r="C527" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="528" spans="1:3">
-      <c r="A528" s="3" t="s">
+      <c r="A528" s="2" t="s">
         <v>1456</v>
       </c>
-      <c r="B528" s="3" t="s">
+      <c r="B528" s="2" t="s">
         <v>1457</v>
       </c>
-      <c r="C528" s="3" t="s">
+      <c r="C528" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="529" spans="1:3">
-      <c r="A529" s="3" t="s">
+      <c r="A529" s="2" t="s">
         <v>1459</v>
       </c>
-      <c r="B529" s="3" t="s">
+      <c r="B529" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="C529" s="3" t="s">
+      <c r="C529" s="2" t="s">
         <v>1461</v>
       </c>
     </row>
     <row r="530" spans="1:3">
-      <c r="A530" s="3" t="s">
+      <c r="A530" s="2" t="s">
         <v>1462</v>
       </c>
-      <c r="B530" s="3" t="s">
+      <c r="B530" s="2" t="s">
         <v>1463</v>
       </c>
-      <c r="C530" s="3" t="s">
+      <c r="C530" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="531" spans="1:3">
-      <c r="A531" s="3" t="s">
+      <c r="A531" s="2" t="s">
         <v>1465</v>
       </c>
-      <c r="B531" s="3" t="s">
+      <c r="B531" s="2" t="s">
         <v>1466</v>
       </c>
-      <c r="C531" s="3" t="s">
+      <c r="C531" s="2" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="532" spans="1:3">
-      <c r="A532" s="3" t="s">
+      <c r="A532" s="2" t="s">
         <v>1468</v>
       </c>
-      <c r="B532" s="3" t="s">
+      <c r="B532" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="C532" s="3" t="s">
+      <c r="C532" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="533" spans="1:3">
-      <c r="A533" s="3" t="s">
+      <c r="A533" s="2" t="s">
         <v>1471</v>
       </c>
-      <c r="B533" s="3" t="s">
+      <c r="B533" s="2" t="s">
         <v>1472</v>
       </c>
-      <c r="C533" s="3" t="s">
+      <c r="C533" s="2" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="534" spans="1:3">
-      <c r="A534" s="3" t="s">
+      <c r="A534" s="2" t="s">
         <v>1474</v>
       </c>
-      <c r="B534" s="3" t="s">
+      <c r="B534" s="2" t="s">
         <v>1475</v>
       </c>
-      <c r="C534" s="3" t="s">
+      <c r="C534" s="2" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="535" spans="1:3">
-      <c r="A535" s="3" t="s">
+      <c r="A535" s="2" t="s">
         <v>1477</v>
       </c>
-      <c r="B535" s="3" t="s">
+      <c r="B535" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="C535" s="3" t="s">
+      <c r="C535" s="2" t="s">
         <v>1479</v>
       </c>
     </row>
     <row r="536" spans="1:3">
-      <c r="A536" s="3" t="s">
+      <c r="A536" s="2" t="s">
         <v>1480</v>
       </c>
-      <c r="B536" s="3" t="s">
+      <c r="B536" s="2" t="s">
         <v>1481</v>
       </c>
-      <c r="C536" s="3" t="s">
+      <c r="C536" s="2" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="537" spans="1:3">
-      <c r="A537" s="3" t="s">
+      <c r="A537" s="2" t="s">
         <v>1483</v>
       </c>
-      <c r="B537" s="3" t="s">
+      <c r="B537" s="2" t="s">
         <v>1484</v>
       </c>
-      <c r="C537" s="3" t="s">
+      <c r="C537" s="2" t="s">
         <v>1485</v>
       </c>
     </row>
     <row r="538" spans="1:3">
-      <c r="A538" s="3" t="s">
+      <c r="A538" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="B538" s="3" t="s">
+      <c r="B538" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="C538" s="3" t="s">
+      <c r="C538" s="2" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="539" spans="1:3">
-      <c r="A539" s="3" t="s">
+      <c r="A539" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="B539" s="3" t="s">
+      <c r="B539" s="2" t="s">
         <v>1490</v>
       </c>
-      <c r="C539" s="3" t="s">
+      <c r="C539" s="2" t="s">
         <v>1491</v>
       </c>
     </row>
     <row r="540" spans="1:3">
-      <c r="A540" s="3" t="s">
+      <c r="A540" s="2" t="s">
         <v>1492</v>
       </c>
-      <c r="B540" s="3" t="s">
+      <c r="B540" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="C540" s="3" t="s">
+      <c r="C540" s="2" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="541" spans="1:3">
-      <c r="A541" s="3" t="s">
+      <c r="A541" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="B541" s="3" t="s">
+      <c r="B541" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="C541" s="3" t="s">
+      <c r="C541" s="2" t="s">
         <v>1497</v>
       </c>
     </row>
     <row r="542" spans="1:3">
-      <c r="A542" s="3" t="s">
+      <c r="A542" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="B542" s="3" t="s">
+      <c r="B542" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="C542" s="3" t="s">
+      <c r="C542" s="2" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="543" spans="1:3">
-      <c r="A543" s="3" t="s">
+      <c r="A543" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="B543" s="3" t="s">
+      <c r="B543" s="2" t="s">
         <v>1501</v>
       </c>
-      <c r="C543" s="3" t="s">
+      <c r="C543" s="2" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="544" spans="1:3">
-      <c r="A544" s="3" t="s">
+      <c r="A544" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="B544" s="3" t="s">
+      <c r="B544" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="C544" s="3" t="s">
+      <c r="C544" s="2" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="545" spans="1:3">
-      <c r="A545" s="3" t="s">
+      <c r="A545" s="2" t="s">
         <v>1506</v>
       </c>
-      <c r="B545" s="3" t="s">
+      <c r="B545" s="2" t="s">
         <v>1507</v>
       </c>
-      <c r="C545" s="3" t="s">
+      <c r="C545" s="2" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="546" spans="1:3">
-      <c r="A546" s="3" t="s">
+      <c r="A546" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="B546" s="3" t="s">
+      <c r="B546" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="C546" s="3" t="s">
+      <c r="C546" s="2" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="547" spans="1:3">
-      <c r="A547" s="3" t="s">
+      <c r="A547" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="B547" s="3" t="s">
+      <c r="B547" s="2" t="s">
         <v>1513</v>
       </c>
-      <c r="C547" s="3" t="s">
+      <c r="C547" s="2" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="548" spans="1:3">
-      <c r="A548" s="3" t="s">
+      <c r="A548" s="2" t="s">
         <v>1515</v>
       </c>
-      <c r="B548" s="3" t="s">
+      <c r="B548" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="C548" s="3" t="s">
+      <c r="C548" s="2" t="s">
         <v>1517</v>
       </c>
     </row>
     <row r="549" spans="1:3">
-      <c r="A549" s="3" t="s">
+      <c r="A549" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="B549" s="3" t="s">
+      <c r="B549" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="C549" s="3" t="s">
+      <c r="C549" s="2" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="550" spans="1:3">
-      <c r="A550" s="3" t="s">
+      <c r="A550" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="B550" s="3" t="s">
+      <c r="B550" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="C550" s="3" t="s">
+      <c r="C550" s="2" t="s">
         <v>1523</v>
       </c>
     </row>
     <row r="551" spans="1:3">
-      <c r="A551" s="3" t="s">
+      <c r="A551" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="B551" s="3" t="s">
+      <c r="B551" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="C551" s="3" t="s">
+      <c r="C551" s="2" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="552" spans="1:3">
-      <c r="A552" s="3" t="s">
+      <c r="A552" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="B552" s="3" t="s">
+      <c r="B552" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="C552" s="3" t="s">
+      <c r="C552" s="2" t="s">
         <v>1529</v>
       </c>
     </row>
     <row r="553" spans="1:3">
-      <c r="A553" s="3" t="s">
+      <c r="A553" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="B553" s="3" t="s">
+      <c r="B553" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="C553" s="3" t="s">
+      <c r="C553" s="2" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="554" spans="1:3">
-      <c r="A554" s="3" t="s">
+      <c r="A554" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="B554" s="3" t="s">
+      <c r="B554" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="C554" s="3" t="s">
+      <c r="C554" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="555" spans="1:3">
-      <c r="A555" s="3" t="s">
+      <c r="A555" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="B555" s="3" t="s">
+      <c r="B555" s="2" t="s">
         <v>1536</v>
       </c>
-      <c r="C555" s="3" t="s">
+      <c r="C555" s="2" t="s">
         <v>1537</v>
       </c>
     </row>
     <row r="556" spans="1:3">
-      <c r="A556" s="3" t="s">
+      <c r="A556" s="2" t="s">
         <v>1538</v>
       </c>
-      <c r="B556" s="3" t="s">
+      <c r="B556" s="2" t="s">
         <v>1539</v>
       </c>
-      <c r="C556" s="3" t="s">
+      <c r="C556" s="2" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="557" spans="1:3">
-      <c r="A557" s="3" t="s">
+      <c r="A557" s="2" t="s">
         <v>1541</v>
       </c>
-      <c r="B557" s="3" t="s">
+      <c r="B557" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="C557" s="3" t="s">
+      <c r="C557" s="2" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="558" spans="1:3">
-      <c r="A558" s="3" t="s">
+      <c r="A558" s="2" t="s">
         <v>1544</v>
       </c>
-      <c r="B558" s="3" t="s">
+      <c r="B558" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="C558" s="3" t="s">
+      <c r="C558" s="2" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="559" spans="1:3">
-      <c r="A559" s="3" t="s">
+      <c r="A559" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B559" s="3" t="s">
+      <c r="B559" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="C559" s="3" t="s">
+      <c r="C559" s="2" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="560" spans="1:3">
-      <c r="A560" s="3" t="s">
+      <c r="A560" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="B560" s="3" t="s">
+      <c r="B560" s="2" t="s">
         <v>1551</v>
       </c>
-      <c r="C560" s="3" t="s">
+      <c r="C560" s="2" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="561" spans="1:3">
-      <c r="A561" s="3" t="s">
+      <c r="A561" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="B561" s="3" t="s">
+      <c r="B561" s="2" t="s">
         <v>1554</v>
       </c>
-      <c r="C561" s="3" t="s">
+      <c r="C561" s="2" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="562" spans="1:3">
-      <c r="A562" s="3" t="s">
+      <c r="A562" s="2" t="s">
         <v>1556</v>
       </c>
-      <c r="B562" s="3" t="s">
+      <c r="B562" s="2" t="s">
         <v>1557</v>
       </c>
-      <c r="C562" s="3" t="s">
+      <c r="C562" s="2" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="563" spans="1:3">
-      <c r="A563" s="3" t="s">
+      <c r="A563" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="B563" s="3" t="s">
+      <c r="B563" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="C563" s="3" t="s">
+      <c r="C563" s="2" t="s">
         <v>1561</v>
       </c>
     </row>
     <row r="564" spans="1:3">
-      <c r="A564" s="3" t="s">
+      <c r="A564" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="B564" s="3" t="s">
+      <c r="B564" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="C564" s="3" t="s">
+      <c r="C564" s="2" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="565" spans="1:3">
-      <c r="A565" s="3" t="s">
+      <c r="A565" s="2" t="s">
         <v>1565</v>
       </c>
-      <c r="B565" s="3" t="s">
+      <c r="B565" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="C565" s="3" t="s">
+      <c r="C565" s="2" t="s">
         <v>1567</v>
       </c>
     </row>
     <row r="566" spans="1:3">
-      <c r="A566" s="3" t="s">
+      <c r="A566" s="2" t="s">
         <v>1568</v>
       </c>
-      <c r="B566" s="3" t="s">
+      <c r="B566" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="C566" s="3" t="s">
+      <c r="C566" s="2" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="567" spans="1:3">
-      <c r="A567" s="3" t="s">
+      <c r="A567" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="B567" s="3" t="s">
+      <c r="B567" s="2" t="s">
         <v>1572</v>
       </c>
-      <c r="C567" s="3" t="s">
+      <c r="C567" s="2" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="568" spans="1:3">
-      <c r="A568" s="3" t="s">
+      <c r="A568" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="B568" s="3" t="s">
+      <c r="B568" s="2" t="s">
         <v>1575</v>
       </c>
-      <c r="C568" s="3" t="s">
+      <c r="C568" s="2" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="569" spans="1:3">
-      <c r="A569" s="3" t="s">
+      <c r="A569" s="2" t="s">
         <v>1577</v>
       </c>
-      <c r="B569" s="3" t="s">
+      <c r="B569" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="C569" s="3" t="s">
+      <c r="C569" s="2" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="570" spans="1:3">
-      <c r="A570" s="3" t="s">
+      <c r="A570" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="B570" s="3" t="s">
+      <c r="B570" s="2" t="s">
         <v>1581</v>
       </c>
-      <c r="C570" s="3" t="s">
+      <c r="C570" s="2" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="571" spans="1:3">
-      <c r="A571" s="3" t="s">
+      <c r="A571" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="B571" s="3" t="s">
+      <c r="B571" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="C571" s="3" t="s">
+      <c r="C571" s="2" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="572" spans="1:3">
-      <c r="A572" s="3" t="s">
+      <c r="A572" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="B572" s="3" t="s">
+      <c r="B572" s="2" t="s">
         <v>1587</v>
       </c>
-      <c r="C572" s="3" t="s">
+      <c r="C572" s="2" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="573" spans="1:3">
-      <c r="A573" s="3" t="s">
+      <c r="A573" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="B573" s="3" t="s">
+      <c r="B573" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="C573" s="3" t="s">
+      <c r="C573" s="2" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="574" spans="1:3">
-      <c r="A574" s="3" t="s">
+      <c r="A574" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="B574" s="3" t="s">
+      <c r="B574" s="2" t="s">
         <v>1593</v>
       </c>
-      <c r="C574" s="3" t="s">
+      <c r="C574" s="2" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="575" spans="1:3">
-      <c r="A575" s="3" t="s">
+      <c r="A575" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="B575" s="3" t="s">
+      <c r="B575" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="C575" s="3" t="s">
+      <c r="C575" s="2" t="s">
         <v>1597</v>
       </c>
     </row>
     <row r="576" spans="1:3">
-      <c r="A576" s="3" t="s">
+      <c r="A576" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="B576" s="3" t="s">
+      <c r="B576" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="C576" s="3" t="s">
+      <c r="C576" s="2" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="577" spans="1:3">
-      <c r="A577" s="3" t="s">
+      <c r="A577" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="B577" s="3" t="s">
+      <c r="B577" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="C577" s="3" t="s">
+      <c r="C577" s="2" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="578" spans="1:3">
-      <c r="A578" s="3" t="s">
+      <c r="A578" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="B578" s="3" t="s">
+      <c r="B578" s="2" t="s">
         <v>1605</v>
       </c>
-      <c r="C578" s="3" t="s">
+      <c r="C578" s="2" t="s">
         <v>1606</v>
       </c>
     </row>
     <row r="579" spans="1:3">
-      <c r="A579" s="3" t="s">
+      <c r="A579" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="B579" s="3" t="s">
+      <c r="B579" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="C579" s="3" t="s">
+      <c r="C579" s="2" t="s">
         <v>1609</v>
       </c>
     </row>
     <row r="580" spans="1:3">
-      <c r="A580" s="3" t="s">
+      <c r="A580" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="B580" s="3" t="s">
+      <c r="B580" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="C580" s="3" t="s">
+      <c r="C580" s="2" t="s">
         <v>1612</v>
       </c>
     </row>
     <row r="581" spans="1:3">
-      <c r="A581" s="3" t="s">
+      <c r="A581" s="2" t="s">
         <v>1613</v>
       </c>
-      <c r="B581" s="3" t="s">
+      <c r="B581" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="C581" s="3" t="s">
+      <c r="C581" s="2" t="s">
         <v>1615</v>
       </c>
     </row>
     <row r="582" spans="1:3">
-      <c r="A582" s="3" t="s">
+      <c r="A582" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="B582" s="3" t="s">
+      <c r="B582" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C582" s="3" t="s">
+      <c r="C582" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="583" spans="1:3">
-      <c r="A583" s="3" t="s">
+      <c r="A583" s="2" t="s">
         <v>1617</v>
       </c>
-      <c r="B583" s="3" t="s">
+      <c r="B583" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="C583" s="3" t="s">
+      <c r="C583" s="2" t="s">
         <v>1619</v>
       </c>
     </row>
     <row r="584" spans="1:3">
-      <c r="A584" s="3" t="s">
+      <c r="A584" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="B584" s="3" t="s">
+      <c r="B584" s="2" t="s">
         <v>1621</v>
       </c>
-      <c r="C584" s="3" t="s">
+      <c r="C584" s="2" t="s">
         <v>1622</v>
       </c>
     </row>
     <row r="585" spans="1:3">
-      <c r="A585" s="3" t="s">
+      <c r="A585" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="B585" s="3" t="s">
+      <c r="B585" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="C585" s="3" t="s">
+      <c r="C585" s="2" t="s">
         <v>1625</v>
       </c>
     </row>
     <row r="586" spans="1:3">
-      <c r="A586" s="3" t="s">
+      <c r="A586" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="B586" s="3" t="s">
+      <c r="B586" s="2" t="s">
         <v>1627</v>
       </c>
-      <c r="C586" s="3" t="s">
+      <c r="C586" s="2" t="s">
         <v>1628</v>
       </c>
     </row>
     <row r="587" spans="1:3">
-      <c r="A587" s="3" t="s">
+      <c r="A587" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="B587" s="3" t="s">
+      <c r="B587" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="C587" s="3" t="s">
+      <c r="C587" s="2" t="s">
         <v>1631</v>
       </c>
     </row>
     <row r="588" spans="1:3">
-      <c r="A588" s="3" t="s">
+      <c r="A588" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="B588" s="3" t="s">
+      <c r="B588" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="C588" s="3" t="s">
+      <c r="C588" s="2" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="589" spans="1:3">
-      <c r="A589" s="3" t="s">
+      <c r="A589" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="B589" s="3" t="s">
+      <c r="B589" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="C589" s="3" t="s">
+      <c r="C589" s="2" t="s">
         <v>1637</v>
       </c>
     </row>
     <row r="590" spans="1:3">
-      <c r="A590" s="3" t="s">
+      <c r="A590" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="B590" s="3" t="s">
+      <c r="B590" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="C590" s="3" t="s">
+      <c r="C590" s="2" t="s">
         <v>1640</v>
       </c>
     </row>
     <row r="591" spans="1:3">
-      <c r="A591" s="3" t="s">
+      <c r="A591" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="B591" s="3" t="s">
+      <c r="B591" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="C591" s="3" t="s">
+      <c r="C591" s="2" t="s">
         <v>1643</v>
       </c>
     </row>
     <row r="592" spans="1:3">
-      <c r="A592" s="3" t="s">
+      <c r="A592" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="B592" s="3" t="s">
+      <c r="B592" s="2" t="s">
         <v>1645</v>
       </c>
-      <c r="C592" s="3" t="s">
+      <c r="C592" s="2" t="s">
         <v>1646</v>
       </c>
     </row>
     <row r="593" spans="1:3">
-      <c r="A593" s="3" t="s">
+      <c r="A593" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="B593" s="3" t="s">
+      <c r="B593" s="2" t="s">
         <v>1648</v>
       </c>
-      <c r="C593" s="3" t="s">
+      <c r="C593" s="2" t="s">
         <v>1649</v>
       </c>
     </row>
     <row r="594" spans="1:3">
-      <c r="A594" s="3" t="s">
+      <c r="A594" s="2" t="s">
         <v>1650</v>
       </c>
-      <c r="B594" s="3" t="s">
+      <c r="B594" s="2" t="s">
         <v>1651</v>
       </c>
-      <c r="C594" s="3" t="s">
+      <c r="C594" s="2" t="s">
         <v>1652</v>
       </c>
     </row>
     <row r="595" spans="1:3">
-      <c r="A595" s="3" t="s">
+      <c r="A595" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="B595" s="3" t="s">
+      <c r="B595" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="C595" s="3" t="s">
+      <c r="C595" s="2" t="s">
         <v>1655</v>
       </c>
     </row>
     <row r="596" spans="1:3">
-      <c r="A596" s="3" t="s">
+      <c r="A596" s="2" t="s">
         <v>1656</v>
       </c>
-      <c r="B596" s="3" t="s">
+      <c r="B596" s="2" t="s">
         <v>1657</v>
       </c>
-      <c r="C596" s="3" t="s">
+      <c r="C596" s="2" t="s">
         <v>1658</v>
       </c>
     </row>
     <row r="597" spans="1:3">
-      <c r="A597" s="3" t="s">
+      <c r="A597" s="2" t="s">
         <v>1659</v>
       </c>
-      <c r="B597" s="3" t="s">
+      <c r="B597" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="C597" s="3" t="s">
+      <c r="C597" s="2" t="s">
         <v>1661</v>
       </c>
     </row>
     <row r="598" spans="1:3">
-      <c r="A598" s="3" t="s">
+      <c r="A598" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="B598" s="3" t="s">
+      <c r="B598" s="2" t="s">
         <v>1663</v>
       </c>
-      <c r="C598" s="3" t="s">
+      <c r="C598" s="2" t="s">
         <v>1664</v>
       </c>
     </row>
     <row r="599" spans="1:3">
-      <c r="A599" s="3" t="s">
+      <c r="A599" s="2" t="s">
         <v>1665</v>
       </c>
-      <c r="B599" s="3" t="s">
+      <c r="B599" s="2" t="s">
         <v>1666</v>
       </c>
-      <c r="C599" s="3" t="s">
+      <c r="C599" s="2" t="s">
         <v>1667</v>
       </c>
     </row>
     <row r="600" spans="1:3">
-      <c r="A600" s="3" t="s">
+      <c r="A600" s="2" t="s">
         <v>1668</v>
       </c>
-      <c r="B600" s="3" t="s">
+      <c r="B600" s="2" t="s">
         <v>1669</v>
       </c>
-      <c r="C600" s="3" t="s">
+      <c r="C600" s="2" t="s">
         <v>1670</v>
       </c>
     </row>
     <row r="601" spans="1:3">
-      <c r="A601" s="3" t="s">
+      <c r="A601" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="B601" s="3" t="s">
+      <c r="B601" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="C601" s="3" t="s">
+      <c r="C601" s="2" t="s">
         <v>1673</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
